--- a/public/DataPegawai/employees.xlsx
+++ b/public/DataPegawai/employees.xlsx
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Pra</t>
-  </si>
-  <si>
-    <t>pra@gmail.com</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>nda</t>
-  </si>
-  <si>
-    <t>juliet@gmail.com</t>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>Doremi</t>
+  </si>
+  <si>
+    <t>budidoremi@gmail.com</t>
+  </si>
+  <si>
+    <t>khoirul</t>
+  </si>
+  <si>
+    <t>anwar</t>
+  </si>
+  <si>
+    <t>anwar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F2"/>
+  <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +381,7 @@
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -389,16 +389,22 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1">
-        <v>857</v>
+        <v>628</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -413,6 +419,12 @@
       </c>
       <c r="F2">
         <v>898</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataPegawai/employees.xlsx
+++ b/public/DataPegawai/employees.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Budi</t>
   </si>
@@ -42,6 +42,54 @@
   </si>
   <si>
     <t>anwar@gmail.com</t>
+  </si>
+  <si>
+    <t>jerome</t>
+  </si>
+  <si>
+    <t>bakti</t>
+  </si>
+  <si>
+    <t>jerome@gmail.com</t>
+  </si>
+  <si>
+    <t>samsul</t>
+  </si>
+  <si>
+    <t>bakrie</t>
+  </si>
+  <si>
+    <t>samsul@gmail.com</t>
+  </si>
+  <si>
+    <t>ahmad</t>
+  </si>
+  <si>
+    <t>syamsudin</t>
+  </si>
+  <si>
+    <t>ahmad@gmail.com</t>
+  </si>
+  <si>
+    <t>Juliardi</t>
+  </si>
+  <si>
+    <t>batubara</t>
+  </si>
+  <si>
+    <t>juli@gmail.com</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>Pra</t>
+  </si>
+  <si>
+    <t>yoga@gmail.com</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -86,9 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,60 +423,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H2"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1">
         <v>628</v>
       </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
+      <c r="H1" s="1">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
         <v>898</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1">
+        <v>989</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>899</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>897</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>876</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1">
+        <v>899</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>2</v>
       </c>
     </row>
@@ -431,6 +621,11 @@
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
